--- a/Windows/Busquedas/Barriers/Lepidoptera/Lepidoptera_Barriers.xlsx
+++ b/Windows/Busquedas/Barriers/Lepidoptera/Lepidoptera_Barriers.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Andrea" sheetId="2" r:id="rId2"/>
     <sheet name="Rodrigo" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="ToCSV" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Rodrigo!$A$1:$N$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Rodrigo!$A$1:$N$64</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="237">
   <si>
     <t>Barrier</t>
   </si>
@@ -426,9 +425,6 @@
     <t>Etiella zinckenella</t>
   </si>
   <si>
-    <t xml:space="preserve">Etiella hobsoni </t>
-  </si>
-  <si>
     <t>Helicoverpa assulta</t>
   </si>
   <si>
@@ -585,9 +581,6 @@
     <t>Trichoplusia ni</t>
   </si>
   <si>
-    <t>Pseudoplusia includens</t>
-  </si>
-  <si>
     <t>LANDOLT, PJ; HEATH, RR.</t>
   </si>
   <si>
@@ -693,21 +686,6 @@
     <t>Genetic mapping of two components of reproductive isolation between two sibling species of moths, Ostrinia nubilalis and O. scapulalis</t>
   </si>
   <si>
-    <t>Melinaea satevis</t>
-  </si>
-  <si>
-    <t>Melinaea phasiana</t>
-  </si>
-  <si>
-    <t>McClure, M; Mahrouche, L; Houssin, C; Monllor, M; Le Poul, Y; Frerot, B; Furtos, A; Elias, M.</t>
-  </si>
-  <si>
-    <t>Does divergent selection predict the evolution of mate preference and reproductive isolation in the tropical butterfly genus Melinaea (Nymphalidae: Ithomiini)?</t>
-  </si>
-  <si>
-    <t>Melinaea rileyi</t>
-  </si>
-  <si>
     <t>Spodoptera exigua</t>
   </si>
   <si>
@@ -777,10 +755,13 @@
     <t>Genetic basis to divergence of sex pheromones in two closely related moths, Ostrinia scapulalis and O-zealis</t>
   </si>
   <si>
-    <t>(Leptidea sinapis)(Leptidea reali).</t>
-  </si>
-  <si>
-    <t>Choristoneura fumiferana (Clemens) and C. pinus Freeman</t>
+    <t>Etiella hobsoni</t>
+  </si>
+  <si>
+    <t>Chloridea virescens</t>
+  </si>
+  <si>
+    <t>Chrysodeixis includens</t>
   </si>
 </sst>
 </file>
@@ -15284,11 +15265,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16067,7 +16048,7 @@
         <v>123</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>27</v>
@@ -16102,7 +16083,7 @@
         <v>63</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>27</v>
@@ -16132,18 +16113,18 @@
         <v>67</v>
       </c>
       <c r="M22" t="s">
+        <v>125</v>
+      </c>
+      <c r="N22" t="s">
         <v>126</v>
-      </c>
-      <c r="N22" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
         <v>128</v>
-      </c>
-      <c r="B23" t="s">
-        <v>129</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>50</v>
@@ -16164,21 +16145,21 @@
         <v>29</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J23">
         <v>2011</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>50</v>
@@ -16199,21 +16180,21 @@
         <v>34</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J24">
         <v>1986</v>
       </c>
       <c r="K24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -16245,10 +16226,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -16283,10 +16264,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>139</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>140</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>50</v>
@@ -16307,21 +16288,21 @@
         <v>34</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J27">
         <v>2018</v>
       </c>
       <c r="K27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>143</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>144</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>50</v>
@@ -16342,21 +16323,21 @@
         <v>28</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J28">
         <v>2010</v>
       </c>
       <c r="K28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
         <v>147</v>
-      </c>
-      <c r="B29" t="s">
-        <v>148</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>50</v>
@@ -16377,21 +16358,21 @@
         <v>34</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J29">
         <v>2008</v>
       </c>
       <c r="K29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>27</v>
@@ -16412,21 +16393,21 @@
         <v>34</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J30">
         <v>2013</v>
       </c>
       <c r="K30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>27</v>
@@ -16447,21 +16428,21 @@
         <v>34</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J31">
         <v>2013</v>
       </c>
       <c r="K31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="25" t="s">
         <v>154</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>155</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>50</v>
@@ -16482,21 +16463,21 @@
         <v>29</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J32">
         <v>1998</v>
       </c>
       <c r="K32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="25" t="s">
         <v>158</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>159</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>50</v>
@@ -16517,21 +16498,21 @@
         <v>29</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J33">
         <v>2000</v>
       </c>
       <c r="K33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>50</v>
@@ -16552,21 +16533,21 @@
         <v>29</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J34" s="16">
         <v>2000</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>50</v>
@@ -16587,21 +16568,21 @@
         <v>29</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J35" s="16">
         <v>2000</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>50</v>
@@ -16622,21 +16603,21 @@
         <v>29</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J36" s="16">
         <v>2000</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>50</v>
@@ -16657,21 +16638,21 @@
         <v>29</v>
       </c>
       <c r="I37" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J37" s="16">
         <v>2000</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="25" t="s">
         <v>162</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>163</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>50</v>
@@ -16692,21 +16673,21 @@
         <v>29</v>
       </c>
       <c r="I38" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J38" s="16">
         <v>2000</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
         <v>164</v>
-      </c>
-      <c r="B39" t="s">
-        <v>165</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>50</v>
@@ -16727,21 +16708,21 @@
         <v>29</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J39" s="16">
         <v>2021</v>
       </c>
       <c r="K39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
         <v>168</v>
-      </c>
-      <c r="B40" t="s">
-        <v>169</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>27</v>
@@ -16762,21 +16743,21 @@
         <v>28</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J40" s="16">
         <v>2006</v>
       </c>
       <c r="K40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>27</v>
@@ -16797,21 +16778,21 @@
         <v>34</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J41" s="16">
         <v>2006</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>27</v>
@@ -16832,21 +16813,21 @@
         <v>28</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J42" s="16">
         <v>2006</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>27</v>
@@ -16867,21 +16848,21 @@
         <v>28</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J43" s="16">
         <v>2006</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>27</v>
@@ -16902,21 +16883,21 @@
         <v>34</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J44" s="16">
         <v>2006</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>27</v>
@@ -16937,21 +16918,21 @@
         <v>34</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J45" s="16">
         <v>2006</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>27</v>
@@ -16972,21 +16953,21 @@
         <v>28</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J46" s="16">
         <v>2006</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>27</v>
@@ -17007,13 +16988,13 @@
         <v>34</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J47" s="16">
         <v>1987</v>
       </c>
       <c r="K47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -17051,10 +17032,10 @@
         <v>96</v>
       </c>
       <c r="M48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -17062,7 +17043,7 @@
         <v>113</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>50</v>
@@ -17083,21 +17064,21 @@
         <v>28</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J49">
         <v>2006</v>
       </c>
       <c r="K49" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>27</v>
@@ -17118,21 +17099,21 @@
         <v>34</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J50">
         <v>2007</v>
       </c>
       <c r="K50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>27</v>
@@ -17153,21 +17134,21 @@
         <v>29</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J51">
         <v>2003</v>
       </c>
       <c r="K51" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>27</v>
@@ -17188,21 +17169,21 @@
         <v>34</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J52">
         <v>1992</v>
       </c>
       <c r="K52" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>27</v>
@@ -17223,21 +17204,21 @@
         <v>28</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J53">
         <v>2004</v>
       </c>
       <c r="K53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>50</v>
@@ -17258,21 +17239,21 @@
         <v>28</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J54">
         <v>1998</v>
       </c>
       <c r="K54" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>50</v>
@@ -17293,21 +17274,21 @@
         <v>28</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J55">
         <v>2017</v>
       </c>
       <c r="K55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>27</v>
@@ -17328,21 +17309,21 @@
         <v>28</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J56">
         <v>2014</v>
       </c>
       <c r="K56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>50</v>
@@ -17363,138 +17344,138 @@
         <v>28</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J57" s="16">
         <v>2014</v>
       </c>
       <c r="K57" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M57" t="s">
+        <v>209</v>
+      </c>
+      <c r="N57" t="s">
         <v>210</v>
       </c>
-      <c r="M57" t="s">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="N57" t="s">
+      <c r="B58" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B58" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H58" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="J58" s="16">
         <v>2019</v>
       </c>
       <c r="K58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G59" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="J59" s="16">
         <v>2019</v>
       </c>
-      <c r="K59" s="16" t="s">
-        <v>216</v>
+      <c r="K59" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>137</v>
+      <c r="B60" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J60" s="16">
-        <v>2019</v>
+        <v>1991</v>
       </c>
       <c r="K60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>28</v>
@@ -17503,62 +17484,62 @@
         <v>28</v>
       </c>
       <c r="G61" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J61" s="16">
-        <v>2019</v>
-      </c>
-      <c r="K61" t="s">
+        <v>1991</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
+      <c r="B62" t="s">
         <v>225</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="C62" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H62" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C62" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H62" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="16">
+        <v>1992</v>
+      </c>
+      <c r="K62" t="s">
         <v>227</v>
       </c>
-      <c r="J62" s="16">
-        <v>1991</v>
-      </c>
-      <c r="K62" t="s">
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B63" s="25" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>229</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>230</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>50</v>
@@ -17579,21 +17560,21 @@
         <v>29</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J63" s="16">
-        <v>1991</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>228</v>
+        <v>2022</v>
+      </c>
+      <c r="K63" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="25" t="s">
         <v>231</v>
-      </c>
-      <c r="B64" t="s">
-        <v>232</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>27</v>
@@ -17602,99 +17583,29 @@
         <v>29</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I64" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J64" s="16">
+        <v>2005</v>
+      </c>
+      <c r="K64" t="s">
         <v>233</v>
       </c>
-      <c r="J64" s="16">
-        <v>1992</v>
-      </c>
-      <c r="K64" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="J65" s="16">
-        <v>2022</v>
-      </c>
-      <c r="K65" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J66" s="16">
-        <v>2005</v>
-      </c>
-      <c r="K66" t="s">
-        <v>240</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N66"/>
+  <autoFilter ref="A1:N64"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -17702,1030 +17613,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="143.28515625" customWidth="1"/>
-    <col min="3" max="26" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -18764,7 +17658,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
@@ -18790,7 +17684,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -19252,7 +18146,7 @@
         <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
@@ -19278,7 +18172,7 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
@@ -19296,15 +18190,15 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
         <v>128</v>
-      </c>
-      <c r="B23" t="s">
-        <v>129</v>
       </c>
       <c r="C23" t="s">
         <v>50</v>
@@ -19327,10 +18221,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
         <v>132</v>
-      </c>
-      <c r="B24" t="s">
-        <v>133</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
@@ -19353,10 +18247,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
         <v>136</v>
-      </c>
-      <c r="B25" t="s">
-        <v>137</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -19379,10 +18273,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -19405,10 +18299,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
         <v>139</v>
-      </c>
-      <c r="B27" t="s">
-        <v>140</v>
       </c>
       <c r="C27" t="s">
         <v>50</v>
@@ -19431,10 +18325,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
         <v>143</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -19457,10 +18351,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
         <v>147</v>
-      </c>
-      <c r="B29" t="s">
-        <v>148</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -19483,10 +18377,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -19509,10 +18403,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -19535,10 +18429,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" t="s">
         <v>154</v>
-      </c>
-      <c r="B32" t="s">
-        <v>155</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -19561,10 +18455,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" t="s">
         <v>158</v>
-      </c>
-      <c r="B33" t="s">
-        <v>159</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
@@ -19587,10 +18481,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
@@ -19613,10 +18507,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -19639,10 +18533,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
@@ -19665,10 +18559,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -19691,10 +18585,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
         <v>162</v>
-      </c>
-      <c r="B38" t="s">
-        <v>163</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
@@ -19717,10 +18611,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" t="s">
         <v>164</v>
-      </c>
-      <c r="B39" t="s">
-        <v>165</v>
       </c>
       <c r="C39" t="s">
         <v>50</v>
@@ -19743,10 +18637,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
         <v>168</v>
-      </c>
-      <c r="B40" t="s">
-        <v>169</v>
       </c>
       <c r="C40" t="s">
         <v>27</v>
@@ -19769,10 +18663,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -19795,10 +18689,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -19821,10 +18715,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -19847,10 +18741,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -19873,10 +18767,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
         <v>27</v>
@@ -19899,10 +18793,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
         <v>27</v>
@@ -19925,10 +18819,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B47" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -19980,7 +18874,7 @@
         <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
@@ -20003,10 +18897,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
@@ -20029,10 +18923,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -20055,10 +18949,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C52" t="s">
         <v>27</v>
@@ -20081,10 +18975,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
@@ -20107,10 +19001,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
@@ -20133,10 +19027,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
         <v>50</v>
@@ -20159,10 +19053,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C56" t="s">
         <v>27</v>
@@ -20185,10 +19079,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -20211,13 +19105,13 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
         <v>34</v>
@@ -20237,28 +19131,28 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D59" t="s">
         <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H59" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -20266,39 +19160,39 @@
         <v>218</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
         <v>28</v>
@@ -20307,44 +19201,44 @@
         <v>28</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H61" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" t="s">
         <v>225</v>
       </c>
-      <c r="B62" t="s">
-        <v>226</v>
-      </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="B63" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C63" t="s">
         <v>50</v>
@@ -20367,10 +19261,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" t="s">
         <v>231</v>
-      </c>
-      <c r="B64" t="s">
-        <v>232</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -20379,76 +19273,19 @@
         <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>154</v>
-      </c>
-      <c r="B65" t="s">
-        <v>235</v>
-      </c>
-      <c r="C65" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" t="s">
-        <v>29</v>
-      </c>
-      <c r="H65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>208</v>
-      </c>
-      <c r="B66" t="s">
-        <v>238</v>
-      </c>
-      <c r="C66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>